--- a/test_ホワイトボード/已完成/test_ホワイトボート_トラブル一覧_new.xlsx
+++ b/test_ホワイトボード/已完成/test_ホワイトボート_トラブル一覧_new.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="792" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="792"/>
   </bookViews>
   <sheets>
     <sheet name="IN_DB_001" sheetId="7" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3414" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3413" uniqueCount="643">
   <si>
     <t>URL:</t>
   </si>
@@ -3591,8 +3591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:KP147"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4123,9 +4123,7 @@
       <c r="BW47" s="43"/>
     </row>
     <row r="48" spans="1:75" s="183" customFormat="1" ht="14.25">
-      <c r="A48" s="194" t="s">
-        <v>168</v>
-      </c>
+      <c r="A48" s="194"/>
       <c r="B48" s="193" t="s">
         <v>628</v>
       </c>
@@ -20815,7 +20813,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
